--- a/data/trans_orig/P04DS1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04DS1-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEF687BE-139C-41B7-9133-A7A79B0CB4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D13B6C51-49C6-4FF1-BAC3-812B01750191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{534E3907-DDBB-49C5-9CA3-8F43BABB5327}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0101A31-062D-45A2-AEA9-58C83090C98B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="704">
   <si>
     <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2012 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -76,2025 +76,1989 @@
     <t>4,09%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>No tiene instalación de calefacción pero sí aparatos calefac</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>Calefacción individual</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>Calefacción colectiva</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>No tiene instalación de calefacción pero sí aparatos calefac</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
   </si>
   <si>
     <t>66,19%</t>
   </si>
   <si>
-    <t>Calefacción individual</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>Calefacción colectiva</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2023 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
   </si>
   <si>
     <t>65,23%</t>
   </si>
   <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>31,7%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2023 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
     <t>2,54%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
     <t>10,53%</t>
   </si>
   <si>
@@ -2183,9 +2147,6 @@
   </si>
   <si>
     <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
   </si>
   <si>
     <t>6,64%</t>
@@ -2600,7 +2561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AC06E4-F3E4-4F29-B63E-F0237956EA2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5425F83A-D39E-41A8-AA6C-4619259E52A9}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3244,7 +3205,7 @@
         <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -3253,10 +3214,10 @@
         <v>29618</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>93</v>
@@ -3355,13 +3316,13 @@
         <v>230830</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>423</v>
@@ -3370,13 +3331,13 @@
         <v>440641</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3352,13 @@
         <v>18688</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -3406,13 +3367,13 @@
         <v>21686</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -3421,13 +3382,13 @@
         <v>40375</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,7 +3444,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3495,13 +3456,13 @@
         <v>23816</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -3510,13 +3471,13 @@
         <v>27483</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -3528,10 +3489,10 @@
         <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3507,13 @@
         <v>375661</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>343</v>
@@ -3561,13 +3522,13 @@
         <v>393501</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>680</v>
@@ -3576,13 +3537,13 @@
         <v>769161</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3558,13 @@
         <v>189796</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>155</v>
@@ -3612,13 +3573,13 @@
         <v>175135</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>321</v>
@@ -3627,13 +3588,13 @@
         <v>364931</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3609,13 @@
         <v>22008</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -3663,13 +3624,13 @@
         <v>18962</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -3678,13 +3639,13 @@
         <v>40970</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,7 +3701,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3752,13 +3713,13 @@
         <v>20687</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -3767,13 +3728,13 @@
         <v>21050</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -3782,13 +3743,13 @@
         <v>41737</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3764,13 @@
         <v>267722</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>260</v>
@@ -3818,13 +3779,13 @@
         <v>288307</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>503</v>
@@ -3833,13 +3794,13 @@
         <v>556029</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,13 +3815,13 @@
         <v>131618</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>116</v>
@@ -3869,13 +3830,13 @@
         <v>126286</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>237</v>
@@ -3884,13 +3845,13 @@
         <v>257904</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3866,13 @@
         <v>9402</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -3920,13 +3881,13 @@
         <v>12157</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>20</v>
@@ -3935,13 +3896,13 @@
         <v>21559</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,7 +3958,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4009,13 +3970,13 @@
         <v>14314</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="H29" s="7">
         <v>41</v>
@@ -4024,13 +3985,13 @@
         <v>43103</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>55</v>
@@ -4039,13 +4000,13 @@
         <v>57417</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4021,13 @@
         <v>387080</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>489</v>
@@ -4075,13 +4036,13 @@
         <v>523606</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>840</v>
@@ -4090,13 +4051,13 @@
         <v>910686</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4072,13 @@
         <v>146790</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>155</v>
@@ -4126,13 +4087,13 @@
         <v>166908</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>284</v>
@@ -4141,13 +4102,13 @@
         <v>313698</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4123,13 @@
         <v>10487</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -4177,13 +4138,13 @@
         <v>9358</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -4192,13 +4153,13 @@
         <v>19845</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4227,13 @@
         <v>142116</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H34" s="7">
         <v>146</v>
@@ -4281,13 +4242,13 @@
         <v>159575</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M34" s="7">
         <v>277</v>
@@ -4296,13 +4257,13 @@
         <v>301691</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4278,13 @@
         <v>2156576</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H35" s="7">
         <v>2118</v>
@@ -4332,13 +4293,13 @@
         <v>2295187</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M35" s="7">
         <v>4138</v>
@@ -4347,13 +4308,13 @@
         <v>4451762</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,13 +4329,13 @@
         <v>1013463</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H36" s="7">
         <v>940</v>
@@ -4383,13 +4344,13 @@
         <v>1003764</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M36" s="7">
         <v>1888</v>
@@ -4398,13 +4359,13 @@
         <v>2017227</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4380,13 @@
         <v>107529</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H37" s="7">
         <v>90</v>
@@ -4434,13 +4395,13 @@
         <v>95576</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>194</v>
@@ -4449,13 +4410,13 @@
         <v>203105</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>257</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,7 +4472,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4533,7 +4494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D791357-B361-4993-B7C4-146195511E1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3754BB8-5B0F-496E-80E1-58C27FF0F171}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4550,7 +4511,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4657,13 +4618,13 @@
         <v>66337</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>56</v>
@@ -4672,13 +4633,13 @@
         <v>55936</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M4" s="7">
         <v>115</v>
@@ -4687,13 +4648,13 @@
         <v>122273</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4669,13 @@
         <v>216491</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H5" s="7">
         <v>210</v>
@@ -4723,13 +4684,13 @@
         <v>204188</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M5" s="7">
         <v>417</v>
@@ -4738,13 +4699,13 @@
         <v>420678</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4720,13 @@
         <v>120003</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H6" s="7">
         <v>130</v>
@@ -4774,13 +4735,13 @@
         <v>127814</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M6" s="7">
         <v>241</v>
@@ -4789,13 +4750,13 @@
         <v>247817</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,10 +4774,10 @@
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>287</v>
+        <v>48</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>288</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -4825,10 +4786,10 @@
         <v>7817</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>53</v>
@@ -4840,13 +4801,13 @@
         <v>24449</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>292</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4875,13 @@
         <v>97375</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -4929,13 +4890,13 @@
         <v>95094</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M9" s="7">
         <v>185</v>
@@ -4944,13 +4905,13 @@
         <v>192469</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4926,13 @@
         <v>301513</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>285</v>
@@ -4980,13 +4941,13 @@
         <v>275377</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>578</v>
@@ -4995,13 +4956,13 @@
         <v>576890</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +4977,13 @@
         <v>173270</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H11" s="7">
         <v>179</v>
@@ -5031,13 +4992,13 @@
         <v>177303</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M11" s="7">
         <v>348</v>
@@ -5046,13 +5007,13 @@
         <v>350572</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,10 +5028,10 @@
         <v>18337</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>127</v>
+        <v>317</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>319</v>
@@ -5088,7 +5049,7 @@
         <v>321</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="M12" s="7">
         <v>35</v>
@@ -5097,10 +5058,10 @@
         <v>34108</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>324</v>
@@ -5207,7 +5168,7 @@
         <v>332</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,13 +5183,13 @@
         <v>357077</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H15" s="7">
         <v>345</v>
@@ -5237,13 +5198,13 @@
         <v>336880</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M15" s="7">
         <v>688</v>
@@ -5252,13 +5213,13 @@
         <v>693957</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,13 +5234,13 @@
         <v>203274</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H16" s="7">
         <v>221</v>
@@ -5324,13 +5285,13 @@
         <v>19374</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>350</v>
+        <v>56</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -5339,13 +5300,13 @@
         <v>15593</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -5354,13 +5315,13 @@
         <v>34967</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,7 +5377,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5428,13 +5389,13 @@
         <v>102871</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -5443,13 +5404,13 @@
         <v>85684</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>166</v>
@@ -5458,13 +5419,13 @@
         <v>188555</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5440,13 @@
         <v>336732</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>320</v>
@@ -5494,13 +5455,13 @@
         <v>344288</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>630</v>
@@ -5509,13 +5470,13 @@
         <v>681020</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5491,13 @@
         <v>187191</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H21" s="7">
         <v>183</v>
@@ -5545,13 +5506,13 @@
         <v>196442</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M21" s="7">
         <v>350</v>
@@ -5560,13 +5521,13 @@
         <v>383634</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5542,13 @@
         <v>19254</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -5599,10 +5560,10 @@
         <v>385</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -5614,10 +5575,10 @@
         <v>82</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,7 +5620,7 @@
         <v>1184</v>
       </c>
       <c r="N23" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -5673,7 +5634,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5685,13 +5646,13 @@
         <v>79491</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H24" s="7">
         <v>68</v>
@@ -5700,13 +5661,13 @@
         <v>77780</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M24" s="7">
         <v>137</v>
@@ -5715,13 +5676,13 @@
         <v>157271</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5697,13 @@
         <v>243154</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H25" s="7">
         <v>222</v>
@@ -5751,13 +5712,13 @@
         <v>250609</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M25" s="7">
         <v>442</v>
@@ -5766,13 +5727,13 @@
         <v>493764</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,13 +5748,13 @@
         <v>143723</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H26" s="7">
         <v>134</v>
@@ -5802,13 +5763,13 @@
         <v>158181</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M26" s="7">
         <v>259</v>
@@ -5817,13 +5778,13 @@
         <v>301904</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5799,13 @@
         <v>11550</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="H27" s="7">
         <v>9</v>
@@ -5853,13 +5814,13 @@
         <v>10278</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -5868,13 +5829,13 @@
         <v>21828</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,7 +5891,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5942,13 +5903,13 @@
         <v>98126</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H29" s="7">
         <v>103</v>
@@ -5957,13 +5918,13 @@
         <v>117330</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M29" s="7">
         <v>207</v>
@@ -5972,13 +5933,13 @@
         <v>215456</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5954,13 @@
         <v>341459</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="H30" s="7">
         <v>372</v>
@@ -6008,13 +5969,13 @@
         <v>437476</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M30" s="7">
         <v>736</v>
@@ -6023,7 +5984,7 @@
         <v>778935</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>271</v>
+        <v>436</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>437</v>
@@ -6059,13 +6020,13 @@
         <v>207292</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="M31" s="7">
         <v>315</v>
@@ -6074,13 +6035,13 @@
         <v>349178</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6056,13 @@
         <v>9858</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>321</v>
+        <v>447</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>448</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -6113,10 +6074,10 @@
         <v>449</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -6125,13 +6086,13 @@
         <v>25690</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>453</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6160,13 @@
         <v>533571</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="H34" s="7">
         <v>486</v>
@@ -6214,13 +6175,13 @@
         <v>514794</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M34" s="7">
         <v>973</v>
@@ -6229,13 +6190,13 @@
         <v>1048365</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6211,13 @@
         <v>1796426</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="H35" s="7">
         <v>1754</v>
@@ -6265,13 +6226,13 @@
         <v>1848818</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M35" s="7">
         <v>3491</v>
@@ -6280,13 +6241,13 @@
         <v>3645244</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>468</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6262,13 @@
         <v>969347</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H36" s="7">
         <v>1014</v>
@@ -6316,13 +6277,13 @@
         <v>1092977</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M36" s="7">
         <v>1930</v>
@@ -6331,13 +6292,13 @@
         <v>2062324</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,10 +6316,10 @@
         <v>320</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>479</v>
+        <v>42</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H37" s="7">
         <v>84</v>
@@ -6367,13 +6328,13 @@
         <v>87953</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>55</v>
+        <v>479</v>
       </c>
       <c r="M37" s="7">
         <v>175</v>
@@ -6382,13 +6343,13 @@
         <v>182959</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>484</v>
+        <v>42</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>55</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,7 +6405,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -6466,7 +6427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8EF598-96D7-4931-B4C4-CB3399C3A4C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC96FA48-14A1-42F4-820C-8D2C1351BCD7}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6483,7 +6444,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6590,13 +6551,13 @@
         <v>38507</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -6605,10 +6566,10 @@
         <v>25396</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>485</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>328</v>
@@ -6620,13 +6581,13 @@
         <v>63903</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6602,13 @@
         <v>247009</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H5" s="7">
         <v>140</v>
@@ -6656,13 +6617,13 @@
         <v>241534</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M5" s="7">
         <v>253</v>
@@ -6671,13 +6632,13 @@
         <v>488543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,13 +6653,13 @@
         <v>59729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>503</v>
+        <v>359</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H6" s="7">
         <v>32</v>
@@ -6707,13 +6668,13 @@
         <v>62072</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>507</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>56</v>
@@ -6722,13 +6683,13 @@
         <v>121801</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6743,13 +6704,13 @@
         <v>32274</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -6758,13 +6719,13 @@
         <v>25955</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>389</v>
+        <v>507</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -6773,13 +6734,13 @@
         <v>58228</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>514</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,13 +6808,13 @@
         <v>50491</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="H9" s="7">
         <v>59</v>
@@ -6862,13 +6823,13 @@
         <v>66613</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>519</v>
+        <v>291</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="M9" s="7">
         <v>98</v>
@@ -6877,13 +6838,13 @@
         <v>117104</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6898,13 +6859,13 @@
         <v>285062</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H10" s="7">
         <v>296</v>
@@ -6913,13 +6874,13 @@
         <v>308604</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M10" s="7">
         <v>497</v>
@@ -6928,13 +6889,13 @@
         <v>593666</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6949,13 +6910,13 @@
         <v>73900</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -6964,13 +6925,13 @@
         <v>86612</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="M11" s="7">
         <v>117</v>
@@ -6979,13 +6940,13 @@
         <v>160512</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7000,13 +6961,13 @@
         <v>18943</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>543</v>
+        <v>388</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>544</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -7015,13 +6976,13 @@
         <v>35469</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -7030,13 +6991,13 @@
         <v>54412</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>549</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,13 +7065,13 @@
         <v>68378</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="H14" s="7">
         <v>96</v>
@@ -7119,13 +7080,13 @@
         <v>59392</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="M14" s="7">
         <v>171</v>
@@ -7134,13 +7095,13 @@
         <v>127770</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7116,13 @@
         <v>355254</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="H15" s="7">
         <v>534</v>
@@ -7170,13 +7131,13 @@
         <v>397607</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>63</v>
+        <v>554</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="M15" s="7">
         <v>880</v>
@@ -7185,13 +7146,13 @@
         <v>752861</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7167,13 @@
         <v>92771</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="H16" s="7">
         <v>156</v>
@@ -7221,13 +7182,13 @@
         <v>108623</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="M16" s="7">
         <v>241</v>
@@ -7236,13 +7197,13 @@
         <v>201394</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7257,13 +7218,13 @@
         <v>37194</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -7272,13 +7233,13 @@
         <v>43888</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -7287,13 +7248,13 @@
         <v>81082</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>584</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,7 +7310,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7361,13 +7322,13 @@
         <v>72012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="H19" s="7">
         <v>156</v>
@@ -7376,13 +7337,13 @@
         <v>93386</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>591</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>236</v>
@@ -7391,13 +7352,13 @@
         <v>165398</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7412,13 +7373,13 @@
         <v>419371</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>595</v>
+        <v>62</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="H20" s="7">
         <v>689</v>
@@ -7427,13 +7388,13 @@
         <v>462972</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="M20" s="7">
         <v>1095</v>
@@ -7442,13 +7403,13 @@
         <v>882343</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7463,13 +7424,13 @@
         <v>190995</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>604</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="H21" s="7">
         <v>215</v>
@@ -7478,13 +7439,13 @@
         <v>137690</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>608</v>
+        <v>360</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="M21" s="7">
         <v>350</v>
@@ -7493,13 +7454,13 @@
         <v>328685</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>78</v>
+        <v>599</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7514,13 +7475,13 @@
         <v>41612</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>353</v>
+        <v>601</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="H22" s="7">
         <v>78</v>
@@ -7529,13 +7490,13 @@
         <v>51083</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="M22" s="7">
         <v>122</v>
@@ -7544,13 +7505,13 @@
         <v>92695</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,7 +7567,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7618,13 +7579,13 @@
         <v>56886</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="H24" s="7">
         <v>115</v>
@@ -7633,13 +7594,13 @@
         <v>64456</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="M24" s="7">
         <v>182</v>
@@ -7648,13 +7609,13 @@
         <v>121342</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7669,13 +7630,13 @@
         <v>403968</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="H25" s="7">
         <v>677</v>
@@ -7684,13 +7645,13 @@
         <v>409383</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="M25" s="7">
         <v>1116</v>
@@ -7699,13 +7660,13 @@
         <v>813351</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,13 +7681,13 @@
         <v>108146</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>428</v>
+        <v>627</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="H26" s="7">
         <v>143</v>
@@ -7735,13 +7696,13 @@
         <v>85144</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="M26" s="7">
         <v>262</v>
@@ -7750,13 +7711,13 @@
         <v>193290</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7771,13 +7732,13 @@
         <v>29056</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>645</v>
+        <v>230</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>646</v>
+        <v>158</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="H27" s="7">
         <v>64</v>
@@ -7786,13 +7747,13 @@
         <v>36027</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>81</v>
+        <v>636</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="M27" s="7">
         <v>100</v>
@@ -7801,13 +7762,13 @@
         <v>65083</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7863,7 +7824,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -7875,13 +7836,13 @@
         <v>69459</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="H29" s="7">
         <v>170</v>
@@ -7890,13 +7851,13 @@
         <v>102776</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="M29" s="7">
         <v>260</v>
@@ -7905,13 +7866,13 @@
         <v>172235</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7926,13 +7887,13 @@
         <v>469021</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="H30" s="7">
         <v>1213</v>
@@ -7941,13 +7902,13 @@
         <v>758821</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="M30" s="7">
         <v>1910</v>
@@ -7956,13 +7917,13 @@
         <v>1227842</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7977,13 +7938,13 @@
         <v>112125</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="H31" s="7">
         <v>245</v>
@@ -7992,13 +7953,13 @@
         <v>124907</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="M31" s="7">
         <v>409</v>
@@ -8007,13 +7968,13 @@
         <v>237033</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8028,13 +7989,13 @@
         <v>46389</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>680</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="H32" s="7">
         <v>77</v>
@@ -8043,13 +8004,13 @@
         <v>38339</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>419</v>
+        <v>670</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="M32" s="7">
         <v>153</v>
@@ -8058,13 +8019,13 @@
         <v>84728</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>684</v>
+        <v>117</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>514</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8132,13 +8093,13 @@
         <v>355733</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="H34" s="7">
         <v>612</v>
@@ -8147,13 +8108,13 @@
         <v>412018</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="M34" s="7">
         <v>981</v>
@@ -8162,13 +8123,13 @@
         <v>767752</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8183,13 +8144,13 @@
         <v>2179685</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="H35" s="7">
         <v>3549</v>
@@ -8198,13 +8159,13 @@
         <v>2578922</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="M35" s="7">
         <v>5751</v>
@@ -8213,13 +8174,13 @@
         <v>4758607</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,13 +8195,13 @@
         <v>637667</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="H36" s="7">
         <v>862</v>
@@ -8249,13 +8210,13 @@
         <v>605048</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="M36" s="7">
         <v>1435</v>
@@ -8264,13 +8225,13 @@
         <v>1242714</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,13 +8246,13 @@
         <v>205467</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="H37" s="7">
         <v>332</v>
@@ -8300,13 +8261,13 @@
         <v>230760</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="M37" s="7">
         <v>556</v>
@@ -8315,13 +8276,13 @@
         <v>436227</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>81</v>
+        <v>636</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>715</v>
+        <v>46</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8377,7 +8338,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
